--- a/Documentação/BackLog-Marvel.xlsx
+++ b/Documentação/BackLog-Marvel.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Gráfico Burndown" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$F$4:$M$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$F$4:$M$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
   <si>
     <t>Requisito</t>
   </si>
@@ -225,18 +225,6 @@
   </si>
   <si>
     <t>SP3</t>
-  </si>
-  <si>
-    <t>Site institucional (cloud)</t>
-  </si>
-  <si>
-    <t>Ferramenta de Help Desk</t>
-  </si>
-  <si>
-    <t>Site homologado em nuvem</t>
-  </si>
-  <si>
-    <t>Suporte de TI no sistema sistema implementado</t>
   </si>
   <si>
     <t>Total</t>
@@ -267,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,12 +533,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -578,6 +560,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,7 +845,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Backlog!$H$65:$H$68</c:f>
+              <c:f>Backlog!$H$63:$H$66</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -877,12 +865,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Backlog!$I$65:$I$68</c:f>
+              <c:f>Backlog!$I$63:$I$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>239</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>63</c:v>
@@ -891,7 +879,7 @@
                   <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,7 +967,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Backlog!$H$65:$H$68</c:f>
+              <c:f>Backlog!$H$63:$H$66</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -999,18 +987,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Backlog!$I$65,Backlog!$I$71:$I$72)</c:f>
+              <c:f>(Backlog!$I$63,Backlog!$I$69:$I$70)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>239</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,13 +2142,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:N121"/>
+  <dimension ref="D2:N119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="30" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="39" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="8.6640625" style="1"/>
     <col min="4" max="4" width="12.4140625" style="1" customWidth="1"/>
@@ -2179,20 +2167,20 @@
     <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E2" s="22"/>
-      <c r="F2" s="21" t="s">
+    <row r="2" spans="5:13" ht="76.5" customHeight="1">
+      <c r="E2" s="20"/>
+      <c r="F2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="5:13" s="5" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="5:13" s="5" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -2202,59 +2190,59 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="5:13" s="2" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="27" t="s">
+    <row r="4" spans="5:13" s="2" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
+      <c r="F4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F5" s="23" t="s">
+    <row r="5" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
+      <c r="F5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="24">
         <v>5</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="24">
         <v>2</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
@@ -2277,10 +2265,10 @@
         <v>43</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -2304,7 +2292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
@@ -2327,10 +2315,10 @@
         <v>43</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
       <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
@@ -2353,10 +2341,10 @@
         <v>43</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
       <c r="F10" s="9" t="s">
         <v>52</v>
       </c>
@@ -2379,10 +2367,10 @@
         <v>43</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
       <c r="F11" s="9" t="s">
         <v>53</v>
       </c>
@@ -2408,7 +2396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
       <c r="F12" s="9" t="s">
         <v>55</v>
       </c>
@@ -2418,23 +2406,23 @@
       <c r="H12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="24">
         <v>5</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="24">
         <v>2</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>43</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
       <c r="F13" s="9" t="s">
         <v>16</v>
       </c>
@@ -2460,7 +2448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
       <c r="F14" s="9" t="s">
         <v>18</v>
       </c>
@@ -2486,7 +2474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
       <c r="F15" s="9" t="s">
         <v>20</v>
       </c>
@@ -2512,7 +2500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:13" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
       <c r="F16" s="9" t="s">
         <v>22</v>
       </c>
@@ -2538,7 +2526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="4:14" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:14" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
       <c r="F17" s="9" t="s">
         <v>57</v>
       </c>
@@ -2564,7 +2552,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="4:14" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:14" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
       <c r="F18" s="9" t="s">
         <v>58</v>
       </c>
@@ -2590,7 +2578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="4:14" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:14" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
       <c r="F19" s="9" t="s">
         <v>45</v>
       </c>
@@ -2614,7 +2602,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="4:14" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:14" s="7" customFormat="1" ht="50" customHeight="1" thickBot="1">
       <c r="F20" s="9" t="s">
         <v>24</v>
       </c>
@@ -2637,10 +2625,10 @@
         <v>44</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="4:14" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" ht="50" customHeight="1" thickBot="1">
       <c r="F21" s="9" t="s">
         <v>34</v>
       </c>
@@ -2663,10 +2651,10 @@
         <v>44</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="4:14" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" ht="50" customHeight="1" thickBot="1">
       <c r="F22" s="9" t="s">
         <v>27</v>
       </c>
@@ -2689,10 +2677,10 @@
         <v>44</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="4:14" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" ht="50" customHeight="1" thickBot="1">
       <c r="D23" s="8" t="s">
         <v>42</v>
       </c>
@@ -2721,7 +2709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="4:14" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="4:14" ht="50" customHeight="1" thickBot="1">
       <c r="F24" s="9" t="s">
         <v>31</v>
       </c>
@@ -2744,10 +2732,10 @@
         <v>44</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="4:14" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" ht="50" customHeight="1" thickBot="1">
       <c r="F25" s="9" t="s">
         <v>32</v>
       </c>
@@ -2773,84 +2761,52 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="4:14" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="4:14" ht="50" customHeight="1" thickBot="1">
       <c r="F26" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>64</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G26" s="9"/>
       <c r="H26" s="11" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J26" s="12">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K26" s="12">
         <v>3</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="4:14" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F27" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" s="12">
-        <v>8</v>
-      </c>
-      <c r="K27" s="12">
-        <v>3</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="4:14" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" s="12">
-        <v>8</v>
-      </c>
-      <c r="K28" s="12">
-        <v>3</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="4:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="4:14" ht="39.75" customHeight="1">
+      <c r="F27" s="15"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="4:14" ht="39.75" customHeight="1">
+      <c r="F28" s="15"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="4:14" ht="39.75" customHeight="1">
       <c r="F29" s="15"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2860,7 +2816,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="4:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="4:14" ht="39.75" customHeight="1">
       <c r="F30" s="15"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2870,7 +2826,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="4:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="4:14" ht="39.75" customHeight="1">
       <c r="F31" s="15"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2880,7 +2836,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="4:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="4:14" ht="39.75" customHeight="1">
       <c r="F32" s="15"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2890,7 +2846,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="6:14" ht="39.75" customHeight="1">
       <c r="F33" s="15"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2900,7 +2856,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="6:14" ht="39.75" customHeight="1">
       <c r="F34" s="15"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2910,7 +2866,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="6:14" ht="39.75" customHeight="1">
       <c r="F35" s="15"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2920,7 +2876,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="6:14" ht="39.75" customHeight="1">
       <c r="F36" s="15"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2930,7 +2886,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="6:14" ht="39.75" customHeight="1">
       <c r="F37" s="15"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2940,7 +2896,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="6:14" ht="39.75" customHeight="1">
       <c r="F38" s="15"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2948,9 +2904,8 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="39" spans="6:14" ht="39.75" customHeight="1">
       <c r="F39" s="15"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2958,9 +2913,8 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="40" spans="6:14" ht="39.75" customHeight="1">
       <c r="F40" s="15"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2969,7 +2923,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="6:14" ht="39.75" customHeight="1">
       <c r="F41" s="15"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2978,7 +2932,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="6:14" ht="39.75" customHeight="1">
       <c r="F42" s="15"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2987,7 +2941,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="6:14" ht="39.75" customHeight="1">
       <c r="F43" s="15"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2996,7 +2950,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="6:14" ht="39.75" customHeight="1">
       <c r="F44" s="15"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3005,7 +2959,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="6:14" ht="39.75" customHeight="1">
       <c r="F45" s="15"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -3014,7 +2968,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="6:14" ht="39.75" customHeight="1">
       <c r="F46" s="15"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3023,7 +2977,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="6:14" ht="39.75" customHeight="1">
       <c r="F47" s="15"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3032,7 +2986,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="6:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="6:14" ht="39.75" customHeight="1">
       <c r="F48" s="15"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3041,7 +2995,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="6:13" ht="39.75" customHeight="1">
       <c r="F49" s="15"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3050,7 +3004,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="6:13" ht="39.75" customHeight="1">
       <c r="F50" s="15"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3059,25 +3013,27 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="6:13" ht="39.75" customHeight="1">
       <c r="F51" s="15"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G51" s="15"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+    </row>
+    <row r="52" spans="6:13" ht="39.75" customHeight="1">
       <c r="F52" s="15"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G52" s="15"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+    </row>
+    <row r="53" spans="6:13" ht="39.75" customHeight="1">
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="16"/>
@@ -3087,7 +3043,7 @@
       <c r="L53" s="17"/>
       <c r="M53" s="17"/>
     </row>
-    <row r="54" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="6:13" ht="39.75" customHeight="1">
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="16"/>
@@ -3097,7 +3053,7 @@
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>
     </row>
-    <row r="55" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="6:13" ht="39.75" customHeight="1">
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="16"/>
@@ -3107,7 +3063,7 @@
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
     </row>
-    <row r="56" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="6:13" ht="39.75" customHeight="1">
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="16"/>
@@ -3117,7 +3073,7 @@
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
     </row>
-    <row r="57" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="6:13" ht="39.75" customHeight="1">
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="16"/>
@@ -3127,7 +3083,7 @@
       <c r="L57" s="17"/>
       <c r="M57" s="17"/>
     </row>
-    <row r="58" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="6:13" ht="39.75" customHeight="1">
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="16"/>
@@ -3137,7 +3093,7 @@
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
     </row>
-    <row r="59" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="6:13" ht="39.75" customHeight="1">
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
       <c r="H59" s="16"/>
@@ -3147,7 +3103,7 @@
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
     </row>
-    <row r="60" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="6:13" ht="39.75" customHeight="1">
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="16"/>
@@ -3157,7 +3113,7 @@
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
     </row>
-    <row r="61" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="6:13" ht="39.75" customHeight="1">
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
       <c r="H61" s="16"/>
@@ -3167,167 +3123,172 @@
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
     </row>
-    <row r="62" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="6:13" ht="39.75" customHeight="1" thickBot="1">
       <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-    </row>
-    <row r="63" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="6:13" ht="39.75" customHeight="1" thickBot="1">
       <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-    </row>
-    <row r="64" spans="6:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G63" s="2"/>
+      <c r="H63" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="18">
+        <f>SUM(I64:I66)</f>
+        <v>210</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="6:13" ht="39.75" customHeight="1" thickBot="1">
       <c r="F64" s="15"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-    </row>
-    <row r="65" spans="6:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G64" s="7"/>
+      <c r="H64" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I64" s="19">
+        <f>SUMIF(L5:L25,"SP1",J5:J25)</f>
+        <v>63</v>
+      </c>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+    </row>
+    <row r="65" spans="6:13" ht="39.75" customHeight="1" thickBot="1">
       <c r="F65" s="15"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="I65" s="18">
-        <f>SUM(I66:I68)</f>
-        <v>239</v>
-      </c>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="6:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G65" s="7"/>
+      <c r="H65" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I65" s="19">
+        <f>SUMIF(L5:L25,"SP2",J5:J25)</f>
+        <v>147</v>
+      </c>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+    </row>
+    <row r="66" spans="6:13" ht="39.75" customHeight="1" thickBot="1">
       <c r="F66" s="15"/>
       <c r="G66" s="7"/>
       <c r="H66" s="19" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I66" s="19">
-        <f>SUMIF(L5:L27,"SP1",J5:J27)</f>
-        <v>63</v>
+        <f>SUMIF(L5:L25,"SP3",J5:J25)</f>
+        <v>0</v>
       </c>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
     </row>
-    <row r="67" spans="6:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="6:13" ht="39.75" customHeight="1" thickBot="1">
       <c r="F67" s="15"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I67" s="19">
-        <f>SUMIF(L5:L27,"SP2",J5:J27)</f>
-        <v>147</v>
+      <c r="H67" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I67" s="18">
+        <f>AVERAGE(I64:I66)</f>
+        <v>70</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="6:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="6:13" ht="39.75" customHeight="1" thickBot="1">
       <c r="F68" s="15"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I68" s="19">
-        <f>SUMIF(L5:L27,"SP3",J5:J27)</f>
-        <v>29</v>
-      </c>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="6:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="6:13" ht="39.75" customHeight="1" thickBot="1">
       <c r="F69" s="15"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I69" s="18">
-        <f>AVERAGE(I66:I68)</f>
-        <v>79.666666666666671</v>
+      <c r="H69" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I69" s="12">
+        <f>SUMIF(M5:M12,"OK",J5:J12)</f>
+        <v>18</v>
       </c>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="6:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="6:13" ht="39.75" customHeight="1" thickBot="1">
       <c r="F70" s="15"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
+      <c r="H70" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I70" s="12">
+        <f>SUMIF(M13:M25,"OK",J13:J25)</f>
+        <v>55</v>
+      </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="6:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="6:13" ht="39.75" customHeight="1" thickBot="1">
       <c r="F71" s="15"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I71" s="12">
-        <f>SUMIF(M5:M12,"OK",J5:J12)</f>
-        <v>37</v>
+      <c r="H71" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71" s="18">
+        <f>SUM(I69:I70)</f>
+        <v>73</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="6:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="6:13" ht="39.75" customHeight="1" thickBot="1">
       <c r="F72" s="15"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I72" s="12">
-        <f>SUMIF(M13:M25,"OK",J13:J25)</f>
-        <v>100</v>
-      </c>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="6:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="6:13" ht="39.75" customHeight="1" thickBot="1">
       <c r="F73" s="15"/>
       <c r="G73" s="7"/>
       <c r="H73" s="18" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I73" s="18">
-        <f>SUM(I71:I72)</f>
-        <v>137</v>
+        <f>AVERAGE(I71,I67)</f>
+        <v>71.5</v>
       </c>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="6:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="6:13" ht="39.75" customHeight="1">
       <c r="F74" s="15"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -3337,22 +3298,17 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="6:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="6:13" ht="39.75" customHeight="1">
       <c r="F75" s="15"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I75" s="18">
-        <f>AVERAGE(I73,I69)</f>
-        <v>108.33333333333334</v>
-      </c>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="6:13" ht="39.75" customHeight="1">
       <c r="F76" s="15"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
@@ -3362,7 +3318,7 @@
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="6:13" ht="39.75" customHeight="1">
       <c r="F77" s="15"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
@@ -3372,27 +3328,27 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="6:13" ht="39.75" customHeight="1">
       <c r="F78" s="15"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-    </row>
-    <row r="79" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G78" s="15"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+    </row>
+    <row r="79" spans="6:13" ht="39.75" customHeight="1">
       <c r="F79" s="15"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-    </row>
-    <row r="80" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G79" s="15"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+    </row>
+    <row r="80" spans="6:13" ht="39.75" customHeight="1">
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16"/>
@@ -3402,7 +3358,7 @@
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>
     </row>
-    <row r="81" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="6:13" ht="39.75" customHeight="1">
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16"/>
@@ -3412,7 +3368,7 @@
       <c r="L81" s="17"/>
       <c r="M81" s="17"/>
     </row>
-    <row r="82" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="6:13" ht="39.75" customHeight="1">
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16"/>
@@ -3422,7 +3378,7 @@
       <c r="L82" s="17"/>
       <c r="M82" s="17"/>
     </row>
-    <row r="83" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="6:13" ht="39.75" customHeight="1">
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16"/>
@@ -3432,7 +3388,7 @@
       <c r="L83" s="17"/>
       <c r="M83" s="17"/>
     </row>
-    <row r="84" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="6:13" ht="39.75" customHeight="1">
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16"/>
@@ -3442,7 +3398,7 @@
       <c r="L84" s="17"/>
       <c r="M84" s="17"/>
     </row>
-    <row r="85" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="6:13" ht="39.75" customHeight="1">
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16"/>
@@ -3452,7 +3408,7 @@
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>
     </row>
-    <row r="86" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="6:13" ht="39.75" customHeight="1">
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16"/>
@@ -3462,7 +3418,7 @@
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>
     </row>
-    <row r="87" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="6:13" ht="39.75" customHeight="1">
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16"/>
@@ -3472,7 +3428,7 @@
       <c r="L87" s="17"/>
       <c r="M87" s="17"/>
     </row>
-    <row r="88" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="6:13" ht="39.75" customHeight="1">
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16"/>
@@ -3482,7 +3438,7 @@
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>
     </row>
-    <row r="89" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="6:13" ht="39.75" customHeight="1">
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16"/>
@@ -3492,7 +3448,7 @@
       <c r="L89" s="17"/>
       <c r="M89" s="17"/>
     </row>
-    <row r="90" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="6:13" ht="39.75" customHeight="1">
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16"/>
@@ -3502,7 +3458,7 @@
       <c r="L90" s="17"/>
       <c r="M90" s="17"/>
     </row>
-    <row r="91" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="6:13" ht="39.75" customHeight="1">
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
       <c r="H91" s="16"/>
@@ -3512,7 +3468,7 @@
       <c r="L91" s="17"/>
       <c r="M91" s="17"/>
     </row>
-    <row r="92" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="6:13" ht="39.75" customHeight="1">
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
       <c r="H92" s="16"/>
@@ -3522,7 +3478,7 @@
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>
     </row>
-    <row r="93" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="6:13" ht="39.75" customHeight="1">
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
       <c r="H93" s="16"/>
@@ -3532,7 +3488,7 @@
       <c r="L93" s="17"/>
       <c r="M93" s="17"/>
     </row>
-    <row r="94" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="6:13" ht="39.75" customHeight="1">
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
       <c r="H94" s="16"/>
@@ -3542,7 +3498,7 @@
       <c r="L94" s="17"/>
       <c r="M94" s="17"/>
     </row>
-    <row r="95" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="6:13" ht="39.75" customHeight="1">
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
       <c r="H95" s="16"/>
@@ -3552,7 +3508,7 @@
       <c r="L95" s="17"/>
       <c r="M95" s="17"/>
     </row>
-    <row r="96" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="6:13" ht="39.75" customHeight="1">
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
       <c r="H96" s="16"/>
@@ -3562,7 +3518,7 @@
       <c r="L96" s="17"/>
       <c r="M96" s="17"/>
     </row>
-    <row r="97" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="6:13" ht="39.75" customHeight="1">
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
       <c r="H97" s="16"/>
@@ -3572,7 +3528,7 @@
       <c r="L97" s="17"/>
       <c r="M97" s="17"/>
     </row>
-    <row r="98" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="6:13" ht="39.75" customHeight="1">
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
       <c r="H98" s="16"/>
@@ -3582,7 +3538,7 @@
       <c r="L98" s="17"/>
       <c r="M98" s="17"/>
     </row>
-    <row r="99" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="6:13" ht="39.75" customHeight="1">
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
       <c r="H99" s="16"/>
@@ -3592,7 +3548,7 @@
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>
     </row>
-    <row r="100" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="6:13" ht="39.75" customHeight="1">
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
       <c r="H100" s="16"/>
@@ -3602,7 +3558,7 @@
       <c r="L100" s="17"/>
       <c r="M100" s="17"/>
     </row>
-    <row r="101" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="6:13" ht="39.75" customHeight="1">
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
       <c r="H101" s="16"/>
@@ -3612,7 +3568,7 @@
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
     </row>
-    <row r="102" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="6:13" ht="39.75" customHeight="1">
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
       <c r="H102" s="16"/>
@@ -3622,7 +3578,7 @@
       <c r="L102" s="17"/>
       <c r="M102" s="17"/>
     </row>
-    <row r="103" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="6:13" ht="39.75" customHeight="1">
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
       <c r="H103" s="16"/>
@@ -3632,7 +3588,7 @@
       <c r="L103" s="17"/>
       <c r="M103" s="17"/>
     </row>
-    <row r="104" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="6:13" ht="39.75" customHeight="1">
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
       <c r="H104" s="16"/>
@@ -3642,7 +3598,7 @@
       <c r="L104" s="17"/>
       <c r="M104" s="17"/>
     </row>
-    <row r="105" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="6:13" ht="39.75" customHeight="1">
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
       <c r="H105" s="16"/>
@@ -3652,7 +3608,7 @@
       <c r="L105" s="17"/>
       <c r="M105" s="17"/>
     </row>
-    <row r="106" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="6:13" ht="39.75" customHeight="1">
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
       <c r="H106" s="16"/>
@@ -3662,7 +3618,7 @@
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>
     </row>
-    <row r="107" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="6:13" ht="39.75" customHeight="1">
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
       <c r="H107" s="16"/>
@@ -3672,7 +3628,7 @@
       <c r="L107" s="17"/>
       <c r="M107" s="17"/>
     </row>
-    <row r="108" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="6:13" ht="39.75" customHeight="1">
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
       <c r="H108" s="16"/>
@@ -3682,7 +3638,7 @@
       <c r="L108" s="17"/>
       <c r="M108" s="17"/>
     </row>
-    <row r="109" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="6:13" ht="39.75" customHeight="1">
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
       <c r="H109" s="16"/>
@@ -3692,7 +3648,7 @@
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>
     </row>
-    <row r="110" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="6:13" ht="39.75" customHeight="1">
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
       <c r="H110" s="16"/>
@@ -3702,7 +3658,7 @@
       <c r="L110" s="17"/>
       <c r="M110" s="17"/>
     </row>
-    <row r="111" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="6:13" ht="39.75" customHeight="1">
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
       <c r="H111" s="16"/>
@@ -3712,7 +3668,7 @@
       <c r="L111" s="17"/>
       <c r="M111" s="17"/>
     </row>
-    <row r="112" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="6:13" ht="39.75" customHeight="1">
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
       <c r="H112" s="16"/>
@@ -3722,7 +3678,7 @@
       <c r="L112" s="17"/>
       <c r="M112" s="17"/>
     </row>
-    <row r="113" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="6:13" ht="39.75" customHeight="1">
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="16"/>
@@ -3732,7 +3688,7 @@
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
     </row>
-    <row r="114" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="6:13" ht="39.75" customHeight="1">
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
       <c r="H114" s="16"/>
@@ -3742,7 +3698,7 @@
       <c r="L114" s="17"/>
       <c r="M114" s="17"/>
     </row>
-    <row r="115" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="6:13" ht="39.75" customHeight="1">
       <c r="F115" s="15"/>
       <c r="G115" s="15"/>
       <c r="H115" s="16"/>
@@ -3752,7 +3708,7 @@
       <c r="L115" s="17"/>
       <c r="M115" s="17"/>
     </row>
-    <row r="116" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="6:13" ht="39.75" customHeight="1">
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
       <c r="H116" s="16"/>
@@ -3762,7 +3718,7 @@
       <c r="L116" s="17"/>
       <c r="M116" s="17"/>
     </row>
-    <row r="117" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="6:13" ht="39.75" customHeight="1">
       <c r="F117" s="15"/>
       <c r="G117" s="15"/>
       <c r="H117" s="16"/>
@@ -3772,7 +3728,7 @@
       <c r="L117" s="17"/>
       <c r="M117" s="17"/>
     </row>
-    <row r="118" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="6:13" ht="39.75" customHeight="1">
       <c r="F118" s="15"/>
       <c r="G118" s="15"/>
       <c r="H118" s="16"/>
@@ -3782,33 +3738,13 @@
       <c r="L118" s="17"/>
       <c r="M118" s="17"/>
     </row>
-    <row r="119" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-    </row>
-    <row r="120" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-    </row>
-    <row r="121" spans="6:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" spans="6:13" ht="39.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="F4:M27"/>
+  <autoFilter ref="F4:M25"/>
   <mergeCells count="1">
     <mergeCell ref="F2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1 H53:H63 H80:H92 H3:H28">
+  <conditionalFormatting sqref="H1 H51:H61 H78:H90 H3:H26">
     <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="Desejável">
       <formula>NOT(ISERROR(SEARCH("Desejável",H1)))</formula>
     </cfRule>
@@ -3819,15 +3755,15 @@
       <formula>NOT(ISERROR(SEARCH("Essencial",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93:H1048576">
+  <conditionalFormatting sqref="H91:H1048576">
     <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Desejável">
-      <formula>NOT(ISERROR(SEARCH("Desejável",H93)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Desejável",H91)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Importante">
-      <formula>NOT(ISERROR(SEARCH("Importante",H93)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Importante",H91)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Essencial">
-      <formula>NOT(ISERROR(SEARCH("Essencial",H93)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Essencial",H91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:M4">
@@ -3841,7 +3777,7 @@
       <formula>NOT(ISERROR(SEARCH("Essencial",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M53:M63 M80:M1048576 M1:M28">
+  <conditionalFormatting sqref="M51:M61 M78:M1048576 M1:M26">
     <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="PENDENTE">
       <formula>NOT(ISERROR(SEARCH("PENDENTE",M1)))</formula>
     </cfRule>
@@ -3849,12 +3785,12 @@
       <formula>NOT(ISERROR(SEARCH("OK",M1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71:I72">
+  <conditionalFormatting sqref="H69:I70">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PENDENTE">
-      <formula>NOT(ISERROR(SEARCH("PENDENTE",H71)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PENDENTE",H69)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",H71)))</formula>
+      <formula>NOT(ISERROR(SEARCH("OK",H69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3870,7 +3806,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
